--- a/統計管制與最佳化方法概論/homework/考古作業/HW5/HW5.xlsx
+++ b/統計管制與最佳化方法概論/homework/考古作業/HW5/HW5.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\NTU碩士\修課\Statistical Control and Optimization\HW\HW5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SOLab\Documents\研究所資料\統計管制與最佳化方法概論\homework\考古作業\HW5\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD1C55A-B2A8-43F2-B916-3F08687107BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9350" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -110,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4059,7 +4069,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9373,7 +9382,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9403,7 +9418,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9433,7 +9454,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9468,7 +9495,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7"/>
+        <xdr:cNvPr id="8" name="圖表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -9748,16 +9781,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T106"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:F103"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9774,7 +9807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9836,7 +9869,7 @@
         <v>58.919600000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9895,7 +9928,7 @@
         <v>58.9452</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9954,7 +9987,7 @@
         <v>58.983600000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10013,7 +10046,7 @@
         <v>59.001899999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10072,7 +10105,7 @@
         <v>59.031999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10131,7 +10164,7 @@
         <v>59.060699999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10190,7 +10223,7 @@
         <v>59.099400000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10249,7 +10282,7 @@
         <v>59.104100000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10308,7 +10341,7 @@
         <v>59.152500000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10367,7 +10400,7 @@
         <v>59.1663</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10426,7 +10459,7 @@
         <v>59.1721</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10485,7 +10518,7 @@
         <v>59.180500000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10544,7 +10577,7 @@
         <v>59.180799999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10603,7 +10636,7 @@
         <v>59.1892</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10662,7 +10695,7 @@
         <v>59.2136</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10721,7 +10754,7 @@
         <v>59.213799999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10780,7 +10813,7 @@
         <v>59.224299999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10839,7 +10872,7 @@
         <v>59.2316</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10898,7 +10931,7 @@
         <v>59.257100000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10957,7 +10990,7 @@
         <v>59.274799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11016,7 +11049,7 @@
         <v>59.2821</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11075,7 +11108,7 @@
         <v>59.282299999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11134,7 +11167,7 @@
         <v>59.288899999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11193,7 +11226,7 @@
         <v>59.290100000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11252,7 +11285,7 @@
         <v>59.295400000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11311,7 +11344,7 @@
         <v>59.313800000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11370,7 +11403,7 @@
         <v>59.323</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11429,7 +11462,7 @@
         <v>59.3309</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11488,7 +11521,7 @@
         <v>59.3352</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11547,7 +11580,7 @@
         <v>59.3506</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11606,7 +11639,7 @@
         <v>59.355400000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11665,7 +11698,7 @@
         <v>59.389200000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11724,7 +11757,7 @@
         <v>59.401600000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11783,7 +11816,7 @@
         <v>59.406300000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11842,7 +11875,7 @@
         <v>59.414200000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11901,7 +11934,7 @@
         <v>59.433599999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11960,7 +11993,7 @@
         <v>59.435400000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -12019,7 +12052,7 @@
         <v>59.435600000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -12078,7 +12111,7 @@
         <v>59.446100000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -12137,7 +12170,7 @@
         <v>59.450299999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12196,7 +12229,7 @@
         <v>59.451900000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12255,7 +12288,7 @@
         <v>59.466999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12314,7 +12347,7 @@
         <v>59.470599999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12373,7 +12406,7 @@
         <v>59.472299999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12432,7 +12465,7 @@
         <v>59.484499999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12491,7 +12524,7 @@
         <v>59.5017</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12550,7 +12583,7 @@
         <v>59.505099999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12609,7 +12642,7 @@
         <v>59.509300000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12668,7 +12701,7 @@
         <v>59.509799999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12727,7 +12760,7 @@
         <v>59.521599999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12786,7 +12819,7 @@
         <v>59.528199999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12845,7 +12878,7 @@
         <v>59.543399999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12904,7 +12937,7 @@
         <v>59.549100000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12963,7 +12996,7 @@
         <v>59.572699999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -13022,7 +13055,7 @@
         <v>59.579500000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -13081,7 +13114,7 @@
         <v>59.581600000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -13140,7 +13173,7 @@
         <v>59.582299999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -13199,7 +13232,7 @@
         <v>59.584899999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -13258,7 +13291,7 @@
         <v>59.590299999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -13317,7 +13350,7 @@
         <v>59.591200000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -13376,7 +13409,7 @@
         <v>59.597000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -13435,7 +13468,7 @@
         <v>59.608699999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -13494,7 +13527,7 @@
         <v>59.632399999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -13553,7 +13586,7 @@
         <v>59.6387</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -13612,7 +13645,7 @@
         <v>59.642600000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -13671,7 +13704,7 @@
         <v>59.6599</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -13730,7 +13763,7 @@
         <v>59.665199999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -13789,7 +13822,7 @@
         <v>59.671300000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -13848,7 +13881,7 @@
         <v>59.685299999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -13907,7 +13940,7 @@
         <v>59.689700000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -13966,7 +13999,7 @@
         <v>59.700699999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -14025,7 +14058,7 @@
         <v>59.708500000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -14084,7 +14117,7 @@
         <v>59.717300000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -14143,7 +14176,7 @@
         <v>59.721499999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -14202,7 +14235,7 @@
         <v>59.722900000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -14261,7 +14294,7 @@
         <v>59.7271</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -14320,7 +14353,7 @@
         <v>59.748699999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -14379,7 +14412,7 @@
         <v>59.7498</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -14438,7 +14471,7 @@
         <v>59.767600000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14497,7 +14530,7 @@
         <v>59.774099999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14556,7 +14589,7 @@
         <v>59.7791</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14615,7 +14648,7 @@
         <v>59.789499999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14674,7 +14707,7 @@
         <v>59.811199999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14733,7 +14766,7 @@
         <v>59.820999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14792,7 +14825,7 @@
         <v>59.849800000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -14851,7 +14884,7 @@
         <v>59.851900000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -14910,7 +14943,7 @@
         <v>59.856000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -14969,7 +15002,7 @@
         <v>59.8628</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -15028,7 +15061,7 @@
         <v>59.950600000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -15087,7 +15120,7 @@
         <v>59.999400000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -15146,7 +15179,7 @@
         <v>60.027500000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -15205,7 +15238,7 @@
         <v>60.028700000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -15264,7 +15297,7 @@
         <v>60.032899999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -15323,7 +15356,7 @@
         <v>60.035200000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -15382,7 +15415,7 @@
         <v>60.062899999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -15441,7 +15474,7 @@
         <v>60.07</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -15500,7 +15533,7 @@
         <v>60.087800000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -15559,7 +15592,7 @@
         <v>60.111800000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -15618,7 +15651,7 @@
         <v>60.153199999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -15677,7 +15710,7 @@
         <v>60.169800000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
@@ -15702,7 +15735,7 @@
         <v>59.536401999999974</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -15727,7 +15760,7 @@
         <v>0.29799238990350757</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>9</v>
       </c>
@@ -15752,7 +15785,7 @@
         <v>11894.87813515428</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>8</v>
       </c>
@@ -15778,7 +15811,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="F2:F101">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:F101">
     <sortCondition ref="F2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15789,16 +15822,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
+    <sheetView zoomScale="74" workbookViewId="0">
       <selection activeCell="I232" sqref="I232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -15812,7 +15845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15865,7 +15898,7 @@
         <v>2.58387460867469E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15919,7 +15952,7 @@
         <v>1.2935163333496843E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15973,7 +16006,7 @@
         <v>4.0705801366169483E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -16027,7 +16060,7 @@
         <v>9.6583505865831282E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -16081,7 +16114,7 @@
         <v>0.18652937910008865</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -16135,7 +16168,7 @@
         <v>0.307183645178641</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -16189,7 +16222,7 @@
         <v>0.44590947533944342</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -16243,7 +16276,7 @@
         <v>0.58547560513227714</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -16297,7 +16330,7 @@
         <v>0.71028584455053811</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -16352,7 +16385,7 @@
         <v>0.81073884341272429</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -16407,7 +16440,7 @@
         <v>0.88423809408201326</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -16462,7 +16495,7 @@
         <v>0.93353439766967505</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -16517,7 +16550,7 @@
         <v>0.96405433892845449</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -16572,7 +16605,7 @@
         <v>0.98159994392524186</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -16627,7 +16660,7 @@
         <v>0.99101428176052242</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -16682,7 +16715,7 @@
         <v>0.99574996326521903</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -16737,7 +16770,7 @@
         <v>0.99799201822999761</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -16792,7 +16825,7 @@
         <v>0.99899452298297131</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -16847,7 +16880,7 @@
         <v>0.99941918706451149</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -16902,7 +16935,7 @@
         <v>0.99959008161891105</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -16957,7 +16990,7 @@
         <v>0.99965557865077348</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -17012,7 +17045,7 @@
         <v>0.99967954001985893</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -17067,7 +17100,7 @@
         <v>0.99968792489274128</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -17122,7 +17155,7 @@
         <v>0.99969073678017817</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -17177,7 +17210,7 @@
         <v>0.99969164203451255</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -17232,7 +17265,7 @@
         <v>0.99969192226149806</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -17287,7 +17320,7 @@
         <v>0.99969200579465234</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -17342,7 +17375,7 @@
         <v>0.99969202980583438</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -17397,7 +17430,7 @@
         <v>0.9996920364697307</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -17452,7 +17485,7 @@
         <v>0.99969203825753372</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -17507,7 +17540,7 @@
         <v>0.99969203872169687</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -17562,7 +17595,7 @@
         <v>0.9996920388384406</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -17617,7 +17650,7 @@
         <v>0.99969203886691349</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -17672,7 +17705,7 @@
         <v>0.99969203887365354</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -17727,7 +17760,7 @@
         <v>0.99969203887520353</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -17782,7 +17815,7 @@
         <v>0.99969203887555003</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -17837,7 +17870,7 @@
         <v>0.99969203887562541</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -17873,7 +17906,7 @@
         <v>0.10345935278510411</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -17909,7 +17942,7 @@
         <v>0.10345935278510411</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -17945,7 +17978,7 @@
         <v>0.10345935278510411</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -17981,7 +18014,7 @@
         <v>0.10345935278510411</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -18017,7 +18050,7 @@
         <v>0.10345935278510411</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -18053,7 +18086,7 @@
         <v>0.10345935278510411</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -18089,7 +18122,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -18125,7 +18158,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -18161,7 +18194,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -18197,7 +18230,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -18233,7 +18266,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -18269,7 +18302,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -18305,7 +18338,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -18341,7 +18374,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -18377,7 +18410,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -18413,7 +18446,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -18449,7 +18482,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -18485,7 +18518,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -18521,7 +18554,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -18557,7 +18590,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -18593,7 +18626,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -18629,7 +18662,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -18665,7 +18698,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -18701,7 +18734,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -18737,7 +18770,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -18773,7 +18806,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -18809,7 +18842,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -18845,7 +18878,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -18881,7 +18914,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -18917,7 +18950,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -18953,7 +18986,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -18989,7 +19022,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -19025,7 +19058,7 @@
         <v>0.17993465976282919</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -19061,7 +19094,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -19097,7 +19130,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -19133,7 +19166,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -19169,7 +19202,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -19205,7 +19238,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -19241,7 +19274,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -19277,7 +19310,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -19313,7 +19346,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -19349,7 +19382,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -19385,7 +19418,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -19421,7 +19454,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -19457,7 +19490,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -19493,7 +19526,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -19529,7 +19562,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -19565,7 +19598,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -19601,7 +19634,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -19637,7 +19670,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -19673,7 +19706,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -19709,7 +19742,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -19745,7 +19778,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -19781,7 +19814,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -19817,7 +19850,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -19853,7 +19886,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -19889,7 +19922,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -19925,7 +19958,7 @@
         <v>0.26156580656849265</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -19961,7 +19994,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -19997,7 +20030,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -20033,7 +20066,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -20069,7 +20102,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -20105,7 +20138,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -20141,7 +20174,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -20177,7 +20210,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -20213,7 +20246,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -20249,7 +20282,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -20285,7 +20318,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -20321,7 +20354,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -20357,7 +20390,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -20393,7 +20426,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -20429,7 +20462,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -20465,7 +20498,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -20501,7 +20534,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -20537,7 +20570,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -20573,7 +20606,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -20609,7 +20642,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -20645,7 +20678,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -20681,7 +20714,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -20717,7 +20750,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -20753,7 +20786,7 @@
         <v>0.34325447991473884</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -20789,7 +20822,7 @@
         <v>0.42173087072421461</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -20825,7 +20858,7 @@
         <v>0.42173087072421461</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -20861,7 +20894,7 @@
         <v>0.42173087072421461</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -20897,7 +20930,7 @@
         <v>0.42173087072421461</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -20933,7 +20966,7 @@
         <v>0.42173087072421461</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -20969,7 +21002,7 @@
         <v>0.42173087072421461</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -21005,7 +21038,7 @@
         <v>0.42173087072421461</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -21041,7 +21074,7 @@
         <v>0.42173087072421461</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -21077,7 +21110,7 @@
         <v>0.42173087072421461</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -21113,7 +21146,7 @@
         <v>0.42173087072421461</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -21149,7 +21182,7 @@
         <v>0.42173087072421461</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -21185,7 +21218,7 @@
         <v>0.42173087072421461</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -21221,7 +21254,7 @@
         <v>0.42173087072421461</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -21257,7 +21290,7 @@
         <v>0.42173087072421461</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -21293,7 +21326,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -21329,7 +21362,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -21365,7 +21398,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -21401,7 +21434,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -21437,7 +21470,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -21473,7 +21506,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -21509,7 +21542,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -21545,7 +21578,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -21581,7 +21614,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -21617,7 +21650,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -21653,7 +21686,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -21689,7 +21722,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -21725,7 +21758,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -21761,7 +21794,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -21797,7 +21830,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -21833,7 +21866,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -21869,7 +21902,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -21905,7 +21938,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -21941,7 +21974,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -21977,7 +22010,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -22013,7 +22046,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -22049,7 +22082,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -22085,7 +22118,7 @@
         <v>0.49502711859950899</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -22121,7 +22154,7 @@
         <v>0.5620880563852948</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -22157,7 +22190,7 @@
         <v>0.5620880563852948</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -22193,7 +22226,7 @@
         <v>0.5620880563852948</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -22229,7 +22262,7 @@
         <v>0.5620880563852948</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -22265,7 +22298,7 @@
         <v>0.5620880563852948</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -22301,7 +22334,7 @@
         <v>0.5620880563852948</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -22337,7 +22370,7 @@
         <v>0.5620880563852948</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -22373,7 +22406,7 @@
         <v>0.5620880563852948</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -22409,7 +22442,7 @@
         <v>0.5620880563852948</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -22445,7 +22478,7 @@
         <v>0.5620880563852948</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -22481,7 +22514,7 @@
         <v>0.5620880563852948</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -22517,7 +22550,7 @@
         <v>0.5620880563852948</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -22553,7 +22586,7 @@
         <v>0.62248543324324623</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -22589,7 +22622,7 @@
         <v>0.62248543324324623</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -22625,7 +22658,7 @@
         <v>0.62248543324324623</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -22661,7 +22694,7 @@
         <v>0.62248543324324623</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -22697,7 +22730,7 @@
         <v>0.62248543324324623</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -22733,7 +22766,7 @@
         <v>0.62248543324324623</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -22769,7 +22802,7 @@
         <v>0.62248543324324623</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -22805,7 +22838,7 @@
         <v>0.62248543324324623</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -22841,7 +22874,7 @@
         <v>0.62248543324324623</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -22877,7 +22910,7 @@
         <v>0.62248543324324623</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -22913,7 +22946,7 @@
         <v>0.62248543324324623</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -22949,7 +22982,7 @@
         <v>0.62248543324324623</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -22985,7 +23018,7 @@
         <v>0.62248543324324623</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -23021,7 +23054,7 @@
         <v>0.67620982407182706</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -23057,7 +23090,7 @@
         <v>0.67620982407182706</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -23093,7 +23126,7 @@
         <v>0.67620982407182706</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -23129,7 +23162,7 @@
         <v>0.72352060505033777</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -23165,7 +23198,7 @@
         <v>0.72352060505033777</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -23201,7 +23234,7 @@
         <v>0.72352060505033777</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -23237,7 +23270,7 @@
         <v>0.72352060505033777</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -23273,7 +23306,7 @@
         <v>0.72352060505033777</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -23309,7 +23342,7 @@
         <v>0.72352060505033777</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -23345,7 +23378,7 @@
         <v>0.72352060505033777</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -23381,7 +23414,7 @@
         <v>0.72352060505033777</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -23417,7 +23450,7 @@
         <v>0.76483911109266356</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -23453,7 +23486,7 @@
         <v>0.76483911109266356</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -23489,7 +23522,7 @@
         <v>0.76483911109266356</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -23525,7 +23558,7 @@
         <v>0.76483911109266356</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -23561,7 +23594,7 @@
         <v>0.76483911109266356</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -23597,7 +23630,7 @@
         <v>0.76483911109266356</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -23633,7 +23666,7 @@
         <v>0.76483911109266356</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -23669,7 +23702,7 @@
         <v>0.80067371833039958</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -23705,7 +23738,7 @@
         <v>0.80067371833039958</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -23741,7 +23774,7 @@
         <v>0.80067371833039958</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -23777,7 +23810,7 @@
         <v>0.83156836725231487</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -23813,7 +23846,7 @@
         <v>0.83156836725231487</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -23849,7 +23882,7 @@
         <v>0.85806815649789536</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -23885,7 +23918,7 @@
         <v>0.85806815649789536</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -23921,7 +23954,7 @@
         <v>0.85806815649789536</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -23957,7 +23990,7 @@
         <v>0.8806972457735246</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -23993,7 +24026,7 @@
         <v>0.8806972457735246</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -24029,7 +24062,7 @@
         <v>0.8806972457735246</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -24065,7 +24098,7 @@
         <v>0.89994552662160054</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -24101,7 +24134,7 @@
         <v>0.89994552662160054</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -24137,7 +24170,7 @@
         <v>0.89994552662160054</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -24173,7 +24206,7 @@
         <v>0.91626144269482901</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -24209,7 +24242,7 @@
         <v>0.91626144269482901</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -24245,7 +24278,7 @@
         <v>0.91626144269482901</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -24281,7 +24314,7 @@
         <v>0.91626144269482901</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -24317,7 +24350,7 @@
         <v>0.94166782457299258</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -24353,7 +24386,7 @@
         <v>0.95962564332919298</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -24389,7 +24422,7 @@
         <v>0.97220824053637922</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -24425,7 +24458,7 @@
         <v>0.97220824053637922</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -24461,7 +24494,7 @@
         <v>0.97698408848916873</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -24497,7 +24530,7 @@
         <v>0.98426611452093504</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -24533,7 +24566,7 @@
         <v>0.99117071750519381</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -24569,7 +24602,7 @@
         <v>0.99401806788532232</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -24605,7 +24638,7 @@
         <v>0.99508170107553462</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -24641,7 +24674,7 @@
         <v>0.99668200974578092</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -24677,7 +24710,7 @@
         <v>0.99668200974578092</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -24686,7 +24719,7 @@
         <v>8.0484581497797354</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>12</v>
       </c>
@@ -24695,7 +24728,7 @@
         <v>6.3526410647174627</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>16</v>
       </c>
@@ -24704,7 +24737,7 @@
         <v>40.356048497134616</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>17</v>
       </c>
@@ -24713,7 +24746,7 @@
         <v>0.19943622949980341</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>18</v>
       </c>
@@ -24722,7 +24755,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:B228">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B228">
     <sortCondition ref="B2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -24732,19 +24765,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView topLeftCell="B88" workbookViewId="0">
       <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -24761,7 +24794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -24789,7 +24822,7 @@
         <v>-0.67697598554615868</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -24813,7 +24846,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -24837,7 +24870,7 @@
         <v>-1.1503493803760083</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -24857,7 +24890,7 @@
         <v>59.001899999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -24877,7 +24910,7 @@
         <v>59.031999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -24897,7 +24930,7 @@
         <v>59.060699999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -24917,7 +24950,7 @@
         <v>59.099400000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -24937,7 +24970,7 @@
         <v>59.104100000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -24957,7 +24990,7 @@
         <v>59.152500000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -24977,7 +25010,7 @@
         <v>59.1663</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -24997,7 +25030,7 @@
         <v>59.1721</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -25021,7 +25054,7 @@
         <v>59.323024014453843</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -25041,7 +25074,7 @@
         <v>59.180799999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -25061,7 +25094,7 @@
         <v>59.1892</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -25081,7 +25114,7 @@
         <v>59.2136</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -25101,7 +25134,7 @@
         <v>59.213799999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -25121,7 +25154,7 @@
         <v>59.224299999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -25141,7 +25174,7 @@
         <v>59.2316</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -25161,7 +25194,7 @@
         <v>59.257100000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -25181,7 +25214,7 @@
         <v>59.274799999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -25201,7 +25234,7 @@
         <v>59.2821</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -25221,7 +25254,7 @@
         <v>59.282299999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -25241,7 +25274,7 @@
         <v>59.288899999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -25261,7 +25294,7 @@
         <v>59.290100000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -25281,7 +25314,7 @@
         <v>59.295400000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -25301,7 +25334,7 @@
         <v>59.313800000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -25321,7 +25354,7 @@
         <v>59.323</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -25341,7 +25374,7 @@
         <v>59.3309</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -25361,7 +25394,7 @@
         <v>59.3352</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -25381,7 +25414,7 @@
         <v>59.3506</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -25401,7 +25434,7 @@
         <v>59.355400000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -25421,7 +25454,7 @@
         <v>59.389200000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -25441,7 +25474,7 @@
         <v>59.401600000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -25461,7 +25494,7 @@
         <v>59.406300000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -25481,7 +25514,7 @@
         <v>59.414200000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -25501,7 +25534,7 @@
         <v>59.433599999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -25521,7 +25554,7 @@
         <v>59.435400000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -25541,7 +25574,7 @@
         <v>59.435600000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -25561,7 +25594,7 @@
         <v>59.446100000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -25581,7 +25614,7 @@
         <v>59.450299999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -25601,7 +25634,7 @@
         <v>59.451900000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -25621,7 +25654,7 @@
         <v>59.466999999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -25641,7 +25674,7 @@
         <v>59.470599999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -25661,7 +25694,7 @@
         <v>59.472299999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -25681,7 +25714,7 @@
         <v>59.484499999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -25701,7 +25734,7 @@
         <v>59.5017</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -25721,7 +25754,7 @@
         <v>59.505099999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -25741,7 +25774,7 @@
         <v>59.509300000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -25761,7 +25794,7 @@
         <v>59.509799999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -25781,7 +25814,7 @@
         <v>59.521599999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -25801,7 +25834,7 @@
         <v>59.528199999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -25821,7 +25854,7 @@
         <v>59.543399999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -25841,7 +25874,7 @@
         <v>59.549100000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -25861,7 +25894,7 @@
         <v>59.572699999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -25881,7 +25914,7 @@
         <v>59.579500000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -25901,7 +25934,7 @@
         <v>59.581600000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -25921,7 +25954,7 @@
         <v>59.582299999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -25941,7 +25974,7 @@
         <v>59.584899999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -25961,7 +25994,7 @@
         <v>59.590299999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -25981,7 +26014,7 @@
         <v>59.591200000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -26001,7 +26034,7 @@
         <v>59.597000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -26021,7 +26054,7 @@
         <v>59.608699999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -26041,7 +26074,7 @@
         <v>59.632399999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -26061,7 +26094,7 @@
         <v>59.6387</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -26081,7 +26114,7 @@
         <v>59.642600000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -26101,7 +26134,7 @@
         <v>59.6599</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -26121,7 +26154,7 @@
         <v>59.665199999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -26141,7 +26174,7 @@
         <v>59.671300000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -26161,7 +26194,7 @@
         <v>59.685299999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -26181,7 +26214,7 @@
         <v>59.689700000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -26201,7 +26234,7 @@
         <v>59.700699999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -26221,7 +26254,7 @@
         <v>59.708500000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -26241,7 +26274,7 @@
         <v>59.717300000000002</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -26261,7 +26294,7 @@
         <v>59.721499999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -26281,7 +26314,7 @@
         <v>59.722900000000003</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -26301,7 +26334,7 @@
         <v>59.7271</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -26321,7 +26354,7 @@
         <v>59.748699999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -26341,7 +26374,7 @@
         <v>59.7498</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -26361,7 +26394,7 @@
         <v>59.767600000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -26381,7 +26414,7 @@
         <v>59.774099999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -26401,7 +26434,7 @@
         <v>59.7791</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -26421,7 +26454,7 @@
         <v>59.789499999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -26441,7 +26474,7 @@
         <v>59.811199999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -26461,7 +26494,7 @@
         <v>59.820999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -26481,7 +26514,7 @@
         <v>59.849800000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -26501,7 +26534,7 @@
         <v>59.851900000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -26521,7 +26554,7 @@
         <v>59.856000000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -26541,7 +26574,7 @@
         <v>59.8628</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -26561,7 +26594,7 @@
         <v>59.950600000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -26581,7 +26614,7 @@
         <v>59.999400000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -26601,7 +26634,7 @@
         <v>60.027500000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -26621,7 +26654,7 @@
         <v>60.028700000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -26641,7 +26674,7 @@
         <v>60.032899999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -26661,7 +26694,7 @@
         <v>60.035200000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -26681,7 +26714,7 @@
         <v>60.062899999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -26701,7 +26734,7 @@
         <v>60.07</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -26721,7 +26754,7 @@
         <v>60.087800000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -26741,7 +26774,7 @@
         <v>60.111800000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -26764,7 +26797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -26804,7 +26837,7 @@
         <v>7.6757753014802407E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>5</v>
       </c>
@@ -26849,7 +26882,7 @@
         <v>59.459644246985171</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>6</v>
       </c>
@@ -26894,12 +26927,12 @@
         <v>59.613159753014777</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H104" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H105">
         <f>B102-$J$2*H101</f>
         <v>60.333898870843633</v>
@@ -26921,7 +26954,7 @@
         <v>59.588365155495481</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H106">
         <f>B102+$J$2*H101</f>
         <v>60.206329129156352</v>
@@ -26943,7 +26976,7 @@
         <v>59.484438844504467</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H108">
         <f>$J$2*B103/10</f>
         <v>-2.4762848514750812E-2</v>
